--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_115_150G_CAT_I_SACHET.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_115_150G_CAT_I_SACHET.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.009999990463257</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.009999990463257</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -485,7 +493,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -494,7 +502,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -503,72 +511,64 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1.024999976158142</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
         <v>1.024999976158142</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>1.024999976158142</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9966666698455811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>1.024999976158142</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.9966666698455811</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9800000190734863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
+        <v>1.024999976158142</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.9966666698455811</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9800000190734863</v>
       </c>
       <c r="E10" t="n">
         <v>0.9800000190734863</v>
@@ -576,33 +576,33 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.9966666698455811</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9800000190734863</v>
       </c>
       <c r="D11" t="n">
         <v>0.9800000190734863</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9800000190734863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9966666698455811</v>
       </c>
       <c r="C12" t="n">
         <v>0.9800000190734863</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9800000190734863</v>
       </c>
       <c r="E12" t="n">
         <v>0.9599999785423279</v>
@@ -610,33 +610,33 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
         <v>0.9800000190734863</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9800000190734863</v>
       </c>
       <c r="D13" t="n">
         <v>0.9599999785423279</v>
       </c>
       <c r="E13" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9599999785423279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.9800000190734863</v>
       </c>
       <c r="C14" t="n">
         <v>0.9599999785423279</v>
       </c>
       <c r="D14" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="E14" t="n">
         <v>0.949999988079071</v>
@@ -644,13 +644,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
         <v>0.9599999785423279</v>
       </c>
       <c r="C15" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="D15" t="n">
         <v>0.949999988079071</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="C16" t="n">
         <v>0.949999988079071</v>
@@ -673,12 +673,12 @@
         <v>0.949999988079071</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
         <v>0.949999988079071</v>
@@ -687,58 +687,58 @@
         <v>0.949999988079071</v>
       </c>
       <c r="D17" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9599999785423279</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9399999976158142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
         <v>0.949999988079071</v>
       </c>
       <c r="C18" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.9599999785423279</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.9399999976158142</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9700000286102295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.9599999785423279</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.9399999976158142</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.9700000286102295</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="C20" t="n">
         <v>0.9399999976158142</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0.9700000286102295</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.949999988079071</v>
       </c>
       <c r="E20" t="n">
         <v>0.949999988079071</v>
@@ -746,13 +746,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+      <c r="C21" t="n">
         <v>0.9700000286102295</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.949999988079071</v>
       </c>
       <c r="D21" t="n">
         <v>0.949999988079071</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9700000286102295</v>
       </c>
       <c r="C22" t="n">
         <v>0.949999988079071</v>
@@ -775,12 +775,12 @@
         <v>0.949999988079071</v>
       </c>
       <c r="E22" t="n">
-        <v>1.029999971389771</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
         <v>0.949999988079071</v>
@@ -789,33 +789,84 @@
         <v>0.949999988079071</v>
       </c>
       <c r="D23" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="E23" t="n">
         <v>1.029999971389771</v>
       </c>
-      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
         <v>0.949999988079071</v>
       </c>
       <c r="C24" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="D24" t="n">
         <v>1.029999971389771</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.9700000286102295</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.029999971389771</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>1.029999971389771</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -828,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,338 +911,380 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8910551071166992</v>
+        <v>0.9896953105926514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9272339344024658</v>
+        <v>0.9601147770881653</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9649733304977417</v>
+        <v>0.9691237807273865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9076367020606995</v>
+        <v>0.8759781718254089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9002477526664734</v>
+        <v>0.9139096736907959</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9525464177131653</v>
+        <v>0.90846848487854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9667814373970032</v>
+        <v>0.8744491934776306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.916521430015564</v>
+        <v>0.8866345286369324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9524317383766174</v>
+        <v>0.8846274018287659</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8876243829727173</v>
+        <v>0.9217695593833923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9004802703857422</v>
+        <v>0.8971988558769226</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8892151117324829</v>
+        <v>0.8932696580886841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9506287574768066</v>
+        <v>0.8370242118835449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9143811464309692</v>
+        <v>0.8798897266387939</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8945122361183167</v>
+        <v>0.8684076070785522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9400171637535095</v>
+        <v>0.8870725035667419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9003572463989258</v>
+        <v>0.8950657844543457</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8686876893043518</v>
+        <v>0.8527932167053223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9548313021659851</v>
+        <v>0.8831025958061218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9566943645477295</v>
+        <v>0.8794763088226318</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8894856572151184</v>
+        <v>0.8519370555877686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.014822363853455</v>
+        <v>0.9493165612220764</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9639965891838074</v>
+        <v>0.9672362804412842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9147243499755859</v>
+        <v>0.8536088466644287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.002495765686035</v>
+        <v>1.012426257133484</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9578955173492432</v>
+        <v>0.9728748798370361</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9320931434631348</v>
+        <v>0.919727087020874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9996390342712402</v>
+        <v>0.9872875213623047</v>
       </c>
       <c r="C11" t="n">
-        <v>1.000644683837891</v>
+        <v>0.9604288339614868</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9833948016166687</v>
+        <v>0.9275219440460205</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9928136467933655</v>
+        <v>0.9853453040122986</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9801121354103088</v>
+        <v>1.011736512184143</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9931816458702087</v>
+        <v>1.001512885093689</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9937224984169006</v>
+        <v>0.9840825796127319</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9852792024612427</v>
+        <v>0.9862036108970642</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9817649126052856</v>
+        <v>1.010216951370239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9731006622314453</v>
+        <v>0.9783520102500916</v>
       </c>
       <c r="C14" t="n">
-        <v>0.984264612197876</v>
+        <v>0.9949885606765747</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9815095067024231</v>
+        <v>1.002963304519653</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9762790203094482</v>
+        <v>0.9803211092948914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9534521698951721</v>
+        <v>0.9950919151306152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9727630019187927</v>
+        <v>0.986250638961792</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9419978260993958</v>
+        <v>0.9574180245399475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9226862788200378</v>
+        <v>0.9716385006904602</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9415314197540283</v>
+        <v>0.9981876015663147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9808329939842224</v>
+        <v>0.9530736207962036</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9660176038742065</v>
+        <v>0.9162014722824097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9852159023284912</v>
+        <v>0.9662907123565674</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.004932403564453</v>
+        <v>0.9854565858840942</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9752262234687805</v>
+        <v>0.9600032567977905</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9744529724121094</v>
+        <v>0.9978660345077515</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9986934661865234</v>
+        <v>0.9874119758605957</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9811403751373291</v>
+        <v>0.948342502117157</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9709144830703735</v>
+        <v>0.9954473376274109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9404073357582092</v>
+        <v>0.9855325818061829</v>
       </c>
       <c r="C20" t="n">
-        <v>0.917452335357666</v>
+        <v>0.9753401279449463</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8948505520820618</v>
+        <v>0.9700835943222046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9796729683876038</v>
+        <v>0.9236874580383301</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9239373803138733</v>
+        <v>0.9315059185028076</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8910091519355774</v>
+        <v>0.9651404023170471</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>0.994723379611969</v>
+        <v>0.9416348338127136</v>
       </c>
       <c r="C22" t="n">
-        <v>1.004077196121216</v>
+        <v>0.9576199054718018</v>
       </c>
       <c r="D22" t="n">
-        <v>1.003445506095886</v>
+        <v>0.9637296199798584</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9924809336662292</v>
+        <v>0.9855744242668152</v>
       </c>
       <c r="C23" t="n">
-        <v>1.004406213760376</v>
+        <v>0.9657893180847168</v>
       </c>
       <c r="D23" t="n">
-        <v>1.003538846969604</v>
+        <v>0.9586789011955261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9764701128005981</v>
+        <v>0.9712285399436951</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9821997880935669</v>
+        <v>0.950808048248291</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9576352834701538</v>
+        <v>0.9648465514183044</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9696754217147827</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9483714699745178</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9793553948402405</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
-        <v>1.005534768104553</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.000469326972961</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9798420667648315</v>
+      <c r="B26" t="n">
+        <v>1.006599545478821</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9935150742530823</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9763816595077515</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9664623737335205</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9836271405220032</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9757119417190552</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9374555945396423</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9258564710617065</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9569060802459717</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_115_150G_CAT_I_SACHET.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_115_150G_CAT_I_SACHET.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 115/150G CAT.I SACHET_S+1</t>
+          <t>PRIX EXP POMME GALA FRANCE 115/150G CAT.I SACHET_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 115/150G CAT.I SACHET_S+2</t>
+          <t>PRIX EXP POMME GALA FRANCE 115/150G CAT.I SACHET_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 115/150G CAT.I SACHET_S+3</t>
+          <t>PRIX EXP POMME GALA FRANCE 115/150G CAT.I SACHET_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>0.949999988079071</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.009999990463257</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.009999990463257</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,46 +487,74 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
       <c r="E7" t="n">
-        <v>1.024999976158142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -534,9 +562,11 @@
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
       <c r="D8" t="n">
-        <v>1.024999976158142</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -548,13 +578,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1.024999976158142</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9966666698455811</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -568,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9966666698455811</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9800000190734863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +612,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9966666698455811</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9800000190734863</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9800000190734863</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +629,13 @@
         <v>0.9966666698455811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9800000190734863</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9800000190734863</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9599999785423279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -616,13 +646,13 @@
         <v>0.9800000190734863</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9800000190734863</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9599999785423279</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9599999785423279</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -633,13 +663,13 @@
         <v>0.9800000190734863</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9599999785423279</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9599999785423279</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -650,13 +680,13 @@
         <v>0.9599999785423279</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9599999785423279</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -667,13 +697,13 @@
         <v>0.9599999785423279</v>
       </c>
       <c r="C16" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -684,13 +714,13 @@
         <v>0.949999988079071</v>
       </c>
       <c r="C17" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9599999785423279</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +731,13 @@
         <v>0.949999988079071</v>
       </c>
       <c r="C18" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9599999785423279</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9399999976158142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -718,13 +748,13 @@
         <v>0.949999988079071</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9599999785423279</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9399999976158142</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9700000286102295</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -735,13 +765,13 @@
         <v>0.9599999785423279</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9399999976158142</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9700000286102295</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -752,13 +782,13 @@
         <v>0.9399999976158142</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9700000286102295</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -769,13 +799,13 @@
         <v>0.9700000286102295</v>
       </c>
       <c r="C22" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -786,13 +816,13 @@
         <v>0.949999988079071</v>
       </c>
       <c r="C23" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1.029999971389771</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -803,13 +833,13 @@
         <v>0.949999988079071</v>
       </c>
       <c r="C24" t="n">
-        <v>0.949999988079071</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.029999971389771</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9700000286102295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -820,13 +850,13 @@
         <v>0.949999988079071</v>
       </c>
       <c r="C25" t="n">
-        <v>1.029999971389771</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9700000286102295</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9399999976158142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -837,12 +867,14 @@
         <v>1.029999971389771</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9700000286102295</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -852,10 +884,14 @@
         <v>0.9700000286102295</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -864,9 +900,15 @@
       <c r="B28" t="n">
         <v>0.9399999976158142</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -914,13 +956,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9896953105926514</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9601147770881653</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9691237807273865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -928,13 +970,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8759781718254089</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9139096736907959</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.90846848487854</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4">
@@ -942,13 +984,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8744491934776306</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8866345286369324</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8846274018287659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -956,13 +998,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9217695593833923</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8971988558769226</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8932696580886841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -970,13 +1012,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8370242118835449</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8798897266387939</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8684076070785522</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
@@ -984,13 +1026,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8870725035667419</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8950657844543457</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8527932167053223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -998,13 +1040,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8831025958061218</v>
+        <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8794763088226318</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8519370555877686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1012,13 +1054,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9493165612220764</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9672362804412842</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8536088466644287</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1026,13 +1068,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.012426257133484</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9728748798370361</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.919727087020874</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1040,13 +1082,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9872875213623047</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9604288339614868</v>
+        <v>-2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9275219440460205</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1096,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9853453040122986</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.011736512184143</v>
+        <v>-2</v>
       </c>
       <c r="D12" t="n">
-        <v>1.001512885093689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1068,13 +1110,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9840825796127319</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9862036108970642</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.010216951370239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1082,13 +1124,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9783520102500916</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9949885606765747</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.002963304519653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1096,13 +1138,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9803211092948914</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9950919151306152</v>
+        <v>-2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.986250638961792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1110,13 +1152,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9574180245399475</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9716385006904602</v>
+        <v>-2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9981876015663147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1124,13 +1166,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9530736207962036</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9162014722824097</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9662907123565674</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1138,13 +1180,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9854565858840942</v>
+        <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9600032567977905</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9978660345077515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1152,13 +1194,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9874119758605957</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.948342502117157</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9954473376274109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1166,13 +1208,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9855325818061829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9753401279449463</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9700835943222046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1180,13 +1222,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9236874580383301</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9315059185028076</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9651404023170471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1194,13 +1236,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9416348338127136</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9576199054718018</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9637296199798584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1208,13 +1250,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9855744242668152</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9657893180847168</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9586789011955261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1222,13 +1264,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9712285399436951</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.950808048248291</v>
+        <v>-2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9648465514183044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1236,13 +1278,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9696754217147827</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9483714699745178</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9793553948402405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1250,13 +1292,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.006599545478821</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9935150742530823</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9763816595077515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1264,13 +1306,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9664623737335205</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9836271405220032</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9757119417190552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1278,13 +1320,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9374555945396423</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9258564710617065</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9569060802459717</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
